--- a/Shading Trees/Baseline Results/Shading Trees - baseline.xlsx
+++ b/Shading Trees/Baseline Results/Shading Trees - baseline.xlsx
@@ -616,31 +616,31 @@
         <v>1.000000158324838</v>
       </c>
       <c r="D4">
-        <v>-1.000000158324838</v>
+        <v>0.6107773305848241</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>0.6107772338836177</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>1.637258143433925</v>
       </c>
       <c r="G4">
-        <v>-0.0005181713204365224</v>
+        <v>0.02726734952011611</v>
       </c>
       <c r="H4">
-        <v>-0.0009185673316096654</v>
+        <v>0.002956964177428745</v>
       </c>
       <c r="I4">
-        <v>-1.404879185429309e-06</v>
+        <v>0.002290673249262909</v>
       </c>
       <c r="J4">
-        <v>-0.06491394690237939</v>
+        <v>0.05422328365966678</v>
       </c>
       <c r="K4">
-        <v>-0.00409148377366364</v>
+        <v>0.05236644484102726</v>
       </c>
       <c r="L4">
-        <v>-0.09720575390383601</v>
+        <v>0.03071292489767075</v>
       </c>
       <c r="M4">
         <v>0.0005181713204365224</v>
@@ -661,22 +661,22 @@
         <v>0.00409148377366364</v>
       </c>
       <c r="S4">
-        <v>0.01088159772916697</v>
+        <v>-0.5448288190818857</v>
       </c>
       <c r="T4">
-        <v>0.01928991396380297</v>
+        <v>-0.05822071621696523</v>
       </c>
       <c r="U4">
-        <v>2.950246289401548e-05</v>
+        <v>-0.04581206010607275</v>
       </c>
       <c r="V4">
-        <v>1.363192884949967</v>
+        <v>-1.019551726290956</v>
       </c>
       <c r="W4">
-        <v>2.041320831980556</v>
+        <v>-0.5170527440495789</v>
       </c>
       <c r="X4">
-        <v>0.08592115924693644</v>
+        <v>-1.043237413046882</v>
       </c>
     </row>
   </sheetData>

--- a/Shading Trees/Baseline Results/Shading Trees - baseline.xlsx
+++ b/Shading Trees/Baseline Results/Shading Trees - baseline.xlsx
@@ -613,70 +613,70 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>1.000000158324838</v>
+        <v>5373.000859812833</v>
       </c>
       <c r="D4">
-        <v>0.6107773305848241</v>
+        <v>3268.002014659345</v>
       </c>
       <c r="E4">
-        <v>0.6107772338836177</v>
+        <v>0.6082265943976016</v>
       </c>
       <c r="F4">
-        <v>1.637258143433925</v>
+        <v>1.644124096530862</v>
       </c>
       <c r="G4">
-        <v>0.02726734952011611</v>
+        <v>145.9361429969722</v>
       </c>
       <c r="H4">
-        <v>0.002956964177428745</v>
+        <v>15.89677538211254</v>
       </c>
       <c r="I4">
-        <v>0.002290673249262909</v>
+        <v>12.25906828093957</v>
       </c>
       <c r="J4">
-        <v>0.05422328365966678</v>
+        <v>290.2080667279661</v>
       </c>
       <c r="K4">
-        <v>0.05236644484102726</v>
+        <v>280.3078072129283</v>
       </c>
       <c r="L4">
-        <v>0.03071292489767075</v>
+        <v>163.4015853721648</v>
       </c>
       <c r="M4">
-        <v>0.0005181713204365224</v>
+        <v>2.784134542991524</v>
       </c>
       <c r="N4">
-        <v>0.0009185673316096654</v>
+        <v>4.935462251400168</v>
       </c>
       <c r="O4">
-        <v>1.404879185429309e-06</v>
+        <v>0.007548424894594064</v>
       </c>
       <c r="P4">
-        <v>0.06491394690237939</v>
+        <v>348.7826346189249</v>
       </c>
       <c r="Q4">
-        <v>0.09720575390383601</v>
+        <v>522.286516635213</v>
       </c>
       <c r="R4">
-        <v>0.00409148377366364</v>
+        <v>21.98354299389757</v>
       </c>
       <c r="S4">
-        <v>-0.5448288190818857</v>
+        <v>-2915.938725396452</v>
       </c>
       <c r="T4">
-        <v>-0.05822071621696523</v>
+        <v>-313.0000453908506</v>
       </c>
       <c r="U4">
-        <v>-0.04581206010607275</v>
+        <v>-245.1738171938969</v>
       </c>
       <c r="V4">
-        <v>-1.019551726290956</v>
+        <v>-5455.378699940396</v>
       </c>
       <c r="W4">
-        <v>-0.5170527440495789</v>
+        <v>-2745.745190808084</v>
       </c>
       <c r="X4">
-        <v>-1.043237413046882</v>
+        <v>-5584.172601264669</v>
       </c>
     </row>
   </sheetData>
